--- a/backend/data/leetcode_solutions.xlsx
+++ b/backend/data/leetcode_solutions.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,6 +768,41 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Find First and Last Position of Element in Sorted Array</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Binary Search</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Problem Pattern: This problem can be solved by applying the binary search algorithm twice, once for the first occurrence and once for the last occurrence of the target value. 
+ Solution Approach: The key idea behind the solution is to find the left and right boundaries separately. When searching for the left boundary, if the middle element equals the target, we move the right pointer to the middle position. When searching for the right boundary, if the middle element equals the target, we move the left pointer to middle + 1.</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>1.  When the problem involves a sorted array or list and requires finding specific elements or boundaries 
+ 2.  When the problem requires time complexity better than linear time, as binary search operates in logarithmic time 
+ 3.  When the problem can be solved by dividing it into subproblems of the same type</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
